--- a/medicine/Psychotrope/Alexandre_Rodenbach/Alexandre_Rodenbach.xlsx
+++ b/medicine/Psychotrope/Alexandre_Rodenbach/Alexandre_Rodenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Rodenbach (1786-1869) est un industriel et homme politique belge aveugle. Il est connu pour être le fondateur de la brasserie Rodenbach en 1820 et pour son engagement philanthropique au cours de sa carrière pour les aveugles, handicap dont il était lui-même atteint.
 </t>
@@ -511,7 +523,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre descend d'une famille de chevaliers allemands du Moyen Âge, les Van Rodenbach. Son père Jean a quatre garçons : Ferdinand (1773-1841), Alexandre (1786-1869), Constantin-François (?-1846) et Pierre (?-1848).
 Alexandre est né à Roulers en 1786. Atteint de cécité dès l'âge de 11 ans, il s'attachera à développer ses autres sens. Il devient l'élève de Valentin Haüy, puis propagera le système d'écriture et d'enseignement inventé par Haüy.
@@ -546,7 +560,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1830, Alexandre et son frère Constantin entrent en politique dans le mouvement catholique et congressiste de la chambre des députés. Alexandre sera réélu jusqu'en mai 1866.
 Ses frères font également des carrières moins remarquées en politique. Ferdinand est commissaire de l'arrondissement d'Ypres de 1831 à 1841 (date de son décès) ; Constantin est député avec Alexandre puis devient ambassadeur à Athènes; Pierre fait carrière dans l'armée à-partir de 1826, date à laquelle il crée un corps de volontaires, jusqu'au grade de capitaine.
@@ -580,7 +596,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1828 Lettre sur les aveugles
 1829 Coup d'œil d'un aveugle sur les sourds-muets
@@ -614,7 +632,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1834 Croix de fer
 1854 Officier de l'ordre de Léopold
